--- a/ILRG_ORAM_K_social/ILRG_ORAM_K_social-media/ILRG_ORAM_K_social.xlsx
+++ b/ILRG_ORAM_K_social/ILRG_ORAM_K_social-media/ILRG_ORAM_K_social.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_K_social\ILRG_ORAM_K_social-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132976BC-958C-454E-AFCB-42868C29FF13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B30621-A844-44A0-952D-463B815F4246}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="1156">
   <si>
     <t>type</t>
   </si>
@@ -3435,15 +3435,88 @@
   </si>
   <si>
     <t>"Formulário K - Organização Social da Comunidade"</t>
+  </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3668,387 +3741,395 @@
   </borders>
   <cellStyleXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="240" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="240"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="240" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="240"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="242">
@@ -4632,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
@@ -5222,19 +5303,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="7" customWidth="1"/>
@@ -5274,309 +5355,485 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="66" t="s">
         <v>1071</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="67" t="s">
         <v>1072</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="66" t="s">
         <v>1061</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="67" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="66" t="s">
         <v>1073</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="67" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="66" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>1075</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C10" s="67" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B11" s="66" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="66" t="s">
         <v>1077</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C13" s="67" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B14" s="66" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C16" s="67" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B17" s="66" t="s">
         <v>1081</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C17" s="67" t="s">
         <v>1082</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B18" s="66" t="s">
         <v>1083</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C18" s="67" t="s">
         <v>1084</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B19" s="66" t="s">
         <v>1085</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C19" s="67" t="s">
         <v>1086</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B20" s="66" t="s">
         <v>1087</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C20" s="67" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B21" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>1089</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C23" s="67" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B24" s="66" t="s">
         <v>1091</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C24" s="67" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B25" s="66" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>1093</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C27" s="65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C30" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>1094</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C31" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C34" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C35" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C36" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C38" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C39" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C40" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B42" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A941:C969">
-    <sortCondition ref="C941:C969"/>
+  <autoFilter ref="A1:F25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A954:C982">
+    <sortCondition ref="C954:C982"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -30928,7 +31185,7 @@
         <v>1063</v>
       </c>
       <c r="C2" s="22">
-        <v>201904041</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>1060</v>

--- a/ILRG_ORAM_K_social/ILRG_ORAM_K_social-media/ILRG_ORAM_K_social.xlsx
+++ b/ILRG_ORAM_K_social/ILRG_ORAM_K_social-media/ILRG_ORAM_K_social.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_K_social\ILRG_ORAM_K_social-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDD47B-5A53-43A4-AE94-2DB57F86B956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F80A1-CFA3-4027-A6FA-2CC1358C41DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1161">
   <si>
     <t>type</t>
   </si>
@@ -3498,15 +3498,40 @@
   </si>
   <si>
     <t>Wiwanana [Muelamassi]</t>
+  </si>
+  <si>
+    <t>AS040024</t>
+  </si>
+  <si>
+    <t>Nari None [Inhanhane]</t>
+  </si>
+  <si>
+    <t>AS040025</t>
+  </si>
+  <si>
+    <t>Ohaua [Maripiha]</t>
+  </si>
+  <si>
+    <t>AS040023</t>
+  </si>
+  <si>
+    <t>Vahane Murima [Muyeye]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3738,389 +3763,397 @@
   </borders>
   <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="242" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="242" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="242"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="238" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="242" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="242"/>
   </cellXfs>
   <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5835,9 +5868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E2BB70-B4C8-4B34-9F35-76304C868D5E}">
   <dimension ref="A1:G4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
+      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13714,49 +13747,86 @@
       <c r="C536" s="59"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="55" t="s">
+      <c r="A537" s="67" t="s">
         <v>1059</v>
       </c>
-      <c r="B537" s="60" t="s">
+      <c r="B537" s="68" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C537" s="69" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D537" s="70"/>
+      <c r="E537" s="70"/>
+      <c r="F537" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="G537" s="59"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B538" s="68" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C538" s="69" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D538" s="70"/>
+      <c r="E538" s="70"/>
+      <c r="F538" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="G538" s="59"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B539" s="68" t="s">
         <v>1151</v>
       </c>
-      <c r="C537" s="59" t="s">
+      <c r="C539" s="69" t="s">
         <v>1152</v>
       </c>
-      <c r="F537" s="58" t="s">
+      <c r="D539" s="70"/>
+      <c r="E539" s="70"/>
+      <c r="F539" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="G537" s="59"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="55" t="s">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="67" t="s">
         <v>1059</v>
       </c>
-      <c r="B538" s="60" t="s">
+      <c r="B540" s="68" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C540" s="69" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D540" s="70"/>
+      <c r="E540" s="70"/>
+      <c r="F540" s="70" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B541" s="68" t="s">
         <v>1153</v>
       </c>
-      <c r="C538" s="59" t="s">
+      <c r="C541" s="69" t="s">
         <v>1154</v>
       </c>
-      <c r="F538" s="58" t="s">
+      <c r="D541" s="70"/>
+      <c r="E541" s="70"/>
+      <c r="F541" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="G538" s="59"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="55"/>
-      <c r="B539" s="60"/>
-      <c r="C539" s="59"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="55"/>
-      <c r="B540" s="60"/>
-      <c r="C540" s="59"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="55"/>
-      <c r="B541" s="60"/>
-      <c r="C541" s="59"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="55"/>
@@ -31110,7 +31180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -31145,7 +31215,7 @@
         <v>1063</v>
       </c>
       <c r="C2" s="22">
-        <v>201904103</v>
+        <v>201904171</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>1060</v>
